--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3023563.314152644</v>
+        <v>3021228.202950664</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8542753.374599596</v>
+        <v>8542753.374599595</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>111.7255193885754</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>105.2636416850876</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>82.15445177273267</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>15.52257672202834</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>14.22077028990291</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>191.1874525866092</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>39.45885325319686</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>232.7071512581192</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>170.7304930065926</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>201.66221878632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1345,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.35809873733209</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187881</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>97.75513637220199</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893656</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763407</v>
       </c>
       <c r="E16" t="n">
-        <v>137.3021949834108</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>66.25628701154803</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.0157691544086</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>55.52079624060472</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>52.54490042791048</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>20.92847288552893</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>25.52471385612641</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>146.9393756113377</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>10.63412424768257</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3509,13 +3509,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722629</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3673,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.0268615655026</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>79.75167225698534</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>31.6639636564717</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1230.118083357703</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C2" t="n">
-        <v>1230.118083357703</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2324.786060938166</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.723173594595</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.723173594595</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.257415333515</v>
+        <v>1185.154965389927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1230.118083357703</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
@@ -4407,28 +4407,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>766.7825745419675</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>597.8463916140606</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>514.8620968941286</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1310.884232784815</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1056.199744578928</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W4" t="n">
-        <v>766.7825745419675</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="X4" t="n">
-        <v>766.7825745419675</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>766.7825745419675</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>519.5572140912823</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C5" t="n">
-        <v>150.5946971508706</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D5" t="n">
-        <v>136.2302827166252</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="V5" t="n">
-        <v>2022.53079966241</v>
+        <v>1913.458594606682</v>
       </c>
       <c r="W5" t="n">
-        <v>1669.762144392296</v>
+        <v>1560.689939336567</v>
       </c>
       <c r="X5" t="n">
-        <v>1296.296386131216</v>
+        <v>1187.224181075488</v>
       </c>
       <c r="Y5" t="n">
-        <v>906.157054155404</v>
+        <v>797.0848490996759</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744465</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770.9577966591559</v>
+        <v>196.9593607670915</v>
       </c>
       <c r="C7" t="n">
-        <v>602.021613731249</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1401.388391530943</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1401.388391530943</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="W7" t="n">
-        <v>1401.388391530943</v>
+        <v>606.5973764953485</v>
       </c>
       <c r="X7" t="n">
-        <v>1173.398840632926</v>
+        <v>378.6078255973312</v>
       </c>
       <c r="Y7" t="n">
-        <v>952.6062614893956</v>
+        <v>378.6078255973312</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>585.4931597741536</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>578.5476590249501</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>969.7403902419976</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>741.7508393439803</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.126497185059</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5021,52 +5021,52 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>878.3568999154069</v>
+        <v>641.8461362382113</v>
       </c>
       <c r="C13" t="n">
-        <v>878.3568999154069</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>823.4946010684511</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004714</v>
@@ -5264,25 +5264,25 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5300,28 +5300,28 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273906</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>692.9625378792909</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.560501433898</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1872.470231673185</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2529.355041543136</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>546.5917956728314</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191926</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349515</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061504</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.043492616111</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.309900062227</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3737171343201</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2570777219844</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>449.3439841395913</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>302.4540366416809</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>302.4540366416809</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>160.742205483879</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832664</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176862</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970975</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035997</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892467</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5774,28 +5774,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925226</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101294</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F22" t="n">
-        <v>149.8982754122191</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
@@ -5999,28 +5999,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6075,16 +6075,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.07903472198</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961267</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2393.887426582372</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2393.887426582372</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2174.285961605313</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1885.210734949511</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1630.526246743624</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1341.109076706663</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1113.119525808646</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6212,43 +6212,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684978</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898186995</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474266</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>710.248605371872</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892237</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768879</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>266.4891497944948</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>119.5992022965844</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>119.5992022965844</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>119.5992022965844</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783594</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640064</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>740.5562989961522</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731941</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7184,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622266</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343197</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2570777219839</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3439841395908</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>302.4540366416804</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>135.2579373565604</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>135.2579373565604</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961526</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.15426255076</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171305</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892237</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768879</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
-        <v>162.0073097921332</v>
+        <v>129.7511347056852</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>211.0329012241547</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154984</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>50.86033664601037</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431582</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187166</v>
       </c>
       <c r="E16" t="n">
-        <v>9.131767663158399</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>15.00954930701748</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346286</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>110.0033420516641</v>
+        <v>28.957421563281</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>13.83034628221117</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>125.5054897610403</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>55.74112246243911</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.89260457059956</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>206.7713260796057</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>40.23897475306292</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>206.7713260796057</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>114.7699989900975</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661655</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
@@ -26323,16 +26323,16 @@
         <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365058</v>
@@ -26341,19 +26341,19 @@
         <v>686074.6097365059</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819042</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744235</v>
       </c>
       <c r="F4" t="n">
+        <v>8727.256391744228</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744235</v>
       </c>
-      <c r="G4" t="n">
-        <v>8727.256391744242</v>
-      </c>
       <c r="H4" t="n">
-        <v>8727.256391744228</v>
+        <v>8727.256391744226</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744259</v>
+        <v>8727.256391744275</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="L4" t="n">
+        <v>8727.256391744344</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744348</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8727.256391744348</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8727.256391744348</v>
+      </c>
+      <c r="P4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744233</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-645326.1886081067</v>
+        <v>-645326.1886081065</v>
       </c>
       <c r="C6" t="n">
-        <v>469425.5949678126</v>
+        <v>469425.5949678131</v>
       </c>
       <c r="D6" t="n">
-        <v>309410.1322198145</v>
+        <v>309410.1322198139</v>
       </c>
       <c r="E6" t="n">
-        <v>250812.3617134988</v>
+        <v>250777.6237880631</v>
       </c>
       <c r="F6" t="n">
-        <v>576224.8235208543</v>
+        <v>576190.0855954186</v>
       </c>
       <c r="G6" t="n">
-        <v>576224.823520854</v>
+        <v>576190.0855954185</v>
       </c>
       <c r="H6" t="n">
-        <v>576224.8235208543</v>
+        <v>576190.0855954187</v>
       </c>
       <c r="I6" t="n">
-        <v>576224.8235208543</v>
+        <v>576190.0855954186</v>
       </c>
       <c r="J6" t="n">
-        <v>408619.6457108718</v>
+        <v>408584.9077854362</v>
       </c>
       <c r="K6" t="n">
-        <v>576224.8235208546</v>
+        <v>576190.0855954189</v>
       </c>
       <c r="L6" t="n">
-        <v>527930.8535126637</v>
+        <v>527896.1155872281</v>
       </c>
       <c r="M6" t="n">
-        <v>491169.7955853426</v>
+        <v>491135.0576599066</v>
       </c>
       <c r="N6" t="n">
-        <v>576224.8235208546</v>
+        <v>576190.0855954188</v>
       </c>
       <c r="O6" t="n">
-        <v>576224.8235208546</v>
+        <v>576190.0855954187</v>
       </c>
       <c r="P6" t="n">
-        <v>576224.8235208546</v>
+        <v>576190.0855954188</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,10 +26960,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26972,31 +26972,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27015,34 +27015,34 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>190.8166233022541</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.306832697356</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000383</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>190.8166233022539</v>
       </c>
-      <c r="E4" t="n">
-        <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>190.8166233022537</v>
-      </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>139.3197307398866</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>264.4674589933815</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>66.46102124547969</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>210.1870786670088</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>340.46227133078</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27634,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>15.47073239362456</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>127.787967845431</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>53.52000286308143</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>240.1912326468608</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>192.2265546147627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,46 +31437,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>539.0475940357379</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32075,13 +32075,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>169.6252075171348</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,31 +32315,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32552,7 +32552,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32561,10 +32561,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>137.7376326175077</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32573,7 +32573,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4402738502014</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
         <v>867.8464071162563</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>467.7715423565655</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,25 +33257,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>270.97169333569</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>555.1777416630686</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>403.852496713802</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>397.6543049213403</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981393</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>528.6300513467554</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>638.9422653403551</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>393.3904345522222</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
+        <v>297.6803606378502</v>
+      </c>
+      <c r="M3" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="M3" t="n">
-        <v>366.9313322820406</v>
-      </c>
       <c r="N3" t="n">
-        <v>553.2044093850072</v>
+        <v>520.9482342985592</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091748</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.587496243485</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>508.713261862005</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961232</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.587454168382</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924729</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>283.5755383312246</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>396.4513495912935</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789214</v>
@@ -35723,13 +35723,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>23.94570355317081</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875399</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36209,10 +36209,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>6.395920534174421</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36443,19 +36443,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>29.46586643587111</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>325.6375084345472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789214</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>132.4173135558158</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>416.6233618831944</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>272.5107846304687</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>263.67989750701</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>6.395920534175339</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>397.2883392634221</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>496.3460208959107</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>254.8360547723481</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
